--- a/data/trans_dic/P1428-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1428-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04057691689445526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07287033263821957</v>
+        <v>0.07287033263821958</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2436709268054775</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09273597709525543</v>
+        <v>0.09500638750508049</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03050248491209111</v>
+        <v>0.02973921663869923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02924017325124262</v>
+        <v>0.02931753677282918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05021572324461364</v>
+        <v>0.0533433037516973</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2172405342520476</v>
+        <v>0.2158856968775261</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09983238351286602</v>
+        <v>0.101377410370408</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09354260143532053</v>
+        <v>0.09386574505184919</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1722030292207742</v>
+        <v>0.172725527442169</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1752308336488779</v>
+        <v>0.1746920808906306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06998140468220611</v>
+        <v>0.0701614685408871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06719721004366071</v>
+        <v>0.06783663977782885</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1243695118889702</v>
+        <v>0.1243949091225357</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1459336274088066</v>
+        <v>0.1470313953391029</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05638433110279335</v>
+        <v>0.05641825571123003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05328466956537416</v>
+        <v>0.05243494577660202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09618374287995803</v>
+        <v>0.09598277475484006</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2748855074579832</v>
+        <v>0.2710368272779893</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1408741268237304</v>
+        <v>0.1405954003320668</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1311843176231755</v>
+        <v>0.1310730493988685</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.223630939036733</v>
+        <v>0.2257314544258104</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2150515440566248</v>
+        <v>0.2156168706015393</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09386883717247715</v>
+        <v>0.09484219590200213</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09015713655280841</v>
+        <v>0.09115094496150247</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1596694137377881</v>
+        <v>0.1612301580385795</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03467446932825993</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05145223412269155</v>
+        <v>0.05145223412269156</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1744725798849167</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05706948445752127</v>
+        <v>0.05623401495155954</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04130204958303584</v>
+        <v>0.04075336591098088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02431282068698814</v>
+        <v>0.02482635606274836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03971963814995722</v>
+        <v>0.0399409972088839</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1536955987624529</v>
+        <v>0.151889845170812</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1150144332328576</v>
+        <v>0.1173836123094869</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0797859070843239</v>
+        <v>0.07881357814488003</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1331457344223087</v>
+        <v>0.1347046475207649</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1091358458734289</v>
+        <v>0.108723802795215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08478097670550389</v>
+        <v>0.0850095155935577</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05746342736153807</v>
+        <v>0.05651468616017617</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09422986554474327</v>
+        <v>0.09335309429484041</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08720561212567646</v>
+        <v>0.08711089668286465</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07179112470065399</v>
+        <v>0.07252729705294091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04897555804660237</v>
+        <v>0.04749081629107824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06531938435929983</v>
+        <v>0.06477484559359037</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2007728044276602</v>
+        <v>0.1986305118122101</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1589907071348288</v>
+        <v>0.1573479144874626</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1179036177565488</v>
+        <v>0.1195501441096317</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1669936722039371</v>
+        <v>0.1676704722064651</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.137431085649009</v>
+        <v>0.136046405620547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1116000017448871</v>
+        <v>0.1115216178414008</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08106457960903088</v>
+        <v>0.079437443416948</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1146830138446996</v>
+        <v>0.1160195405491498</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03968890032007495</v>
+        <v>0.03851760367043851</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04217225429865477</v>
+        <v>0.04186850894697621</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01961314941836508</v>
+        <v>0.02051168050703741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03113067921497325</v>
+        <v>0.03098254681086049</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1179005435614623</v>
+        <v>0.1184398636061732</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09539432706797207</v>
+        <v>0.09270151143459229</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06229667187153586</v>
+        <v>0.0624278640014292</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1113809428185163</v>
+        <v>0.1134898604173229</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08052731538018122</v>
+        <v>0.08005583202960803</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07194806420390944</v>
+        <v>0.07276665313607925</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04394136354697211</v>
+        <v>0.04414258397638172</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07498368357539584</v>
+        <v>0.07518837124699113</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0650884909916228</v>
+        <v>0.06613899951992125</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07280705560606812</v>
+        <v>0.07340670364818537</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04466879567742121</v>
+        <v>0.04405369185754311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05384654519705944</v>
+        <v>0.05394674468391243</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1592598171976631</v>
+        <v>0.1611377116006034</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1383122550697046</v>
+        <v>0.136838420136457</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1047086857270217</v>
+        <v>0.1050192025574872</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1467248370011873</v>
+        <v>0.1438015543787064</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1054505929847701</v>
+        <v>0.1055139338991116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09996985635560127</v>
+        <v>0.09857511997554776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06880549383948156</v>
+        <v>0.06834205162898911</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09546798452260206</v>
+        <v>0.09520268434328551</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03833859711195531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.057127758519966</v>
+        <v>0.05712775851996601</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1012133207482105</v>
@@ -1105,7 +1105,7 @@
         <v>0.04635476822556316</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08478106213596141</v>
+        <v>0.0847810621359614</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04116579512796365</v>
+        <v>0.04291280697426356</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03349159380460921</v>
+        <v>0.03283220092866731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.023301458655297</v>
+        <v>0.0226041613683299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04299498631886891</v>
+        <v>0.04411007126815777</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0699984450993798</v>
+        <v>0.07311940983518515</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09254381874790499</v>
+        <v>0.08938360461201389</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03485489634941247</v>
+        <v>0.03445972974076651</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09861928553374685</v>
+        <v>0.09942825021059185</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06217017958175426</v>
+        <v>0.06150131373330526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06641382969458762</v>
+        <v>0.06570448341662061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03322784459867033</v>
+        <v>0.03399099057094811</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07468181476178637</v>
+        <v>0.07321851451899521</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0905056166056365</v>
+        <v>0.0875004955987576</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07907622196111522</v>
+        <v>0.0777381924241608</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06305820128018186</v>
+        <v>0.05882697622841913</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07224109997108906</v>
+        <v>0.07143169455938428</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1358700136418279</v>
+        <v>0.1429812062539242</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1578868347458976</v>
+        <v>0.1550234584405397</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08129670795047389</v>
+        <v>0.07993811828915445</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.132686196067084</v>
+        <v>0.1315348882095016</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1016406776610191</v>
+        <v>0.1013951807898174</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1046630352970041</v>
+        <v>0.1043187756686775</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06390624361199387</v>
+        <v>0.06327173129765389</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09781129491376024</v>
+        <v>0.09664491088531967</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03621460437919864</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05307382144925515</v>
+        <v>0.05307382144925516</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1753566027023542</v>
@@ -1229,7 +1229,7 @@
         <v>0.09345891082174916</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.142903103996042</v>
+        <v>0.1429031039960421</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1238335885769083</v>
@@ -1241,7 +1241,7 @@
         <v>0.06549899625047746</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09928352373745618</v>
+        <v>0.09928352373745621</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06296195399549763</v>
+        <v>0.06277405134713547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04311956896501701</v>
+        <v>0.04352626843108742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.029852350569343</v>
+        <v>0.03019607368627578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04639946273453565</v>
+        <v>0.04636333287407121</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1629395637845831</v>
+        <v>0.1623473129738493</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1128869259674076</v>
+        <v>0.1122938494487845</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08319411338961848</v>
+        <v>0.08232245634050947</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.134752863707787</v>
+        <v>0.1344532446874226</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1160462343637128</v>
+        <v>0.1148202570810447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0809159452891226</v>
+        <v>0.08113115153328809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05975188817772326</v>
+        <v>0.06019658139540041</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09379141695572384</v>
+        <v>0.09382080887332074</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08040909972207741</v>
+        <v>0.08043670483665359</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05937206525794857</v>
+        <v>0.05895480641586924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0425165249902477</v>
+        <v>0.04294578751061912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06062635056746826</v>
+        <v>0.06075706127594931</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1901945682109458</v>
+        <v>0.1881488690187138</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1349717779971922</v>
+        <v>0.1364943188017123</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.104021946709215</v>
+        <v>0.1036222355578145</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1531108586083273</v>
+        <v>0.152943475472775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1319374858018288</v>
+        <v>0.1317921533558988</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09556235946550735</v>
+        <v>0.09491742625524434</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07227691688463088</v>
+        <v>0.07265700251288548</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1056568031180626</v>
+        <v>0.1051429731015231</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>54171</v>
+        <v>55497</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31843</v>
+        <v>31046</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>32983</v>
+        <v>33070</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24820</v>
+        <v>26366</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>200368</v>
+        <v>199119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>111678</v>
+        <v>113406</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>117823</v>
+        <v>118230</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>106965</v>
+        <v>107290</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>263981</v>
+        <v>263169</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>151341</v>
+        <v>151730</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>160437</v>
+        <v>161964</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>138726</v>
+        <v>138754</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>85246</v>
+        <v>85887</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>58862</v>
+        <v>58897</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>60105</v>
+        <v>59146</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47541</v>
+        <v>47442</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>253536</v>
+        <v>249986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>157589</v>
+        <v>157277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>165235</v>
+        <v>165095</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>138910</v>
+        <v>140215</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>323970</v>
+        <v>324821</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>203000</v>
+        <v>205105</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>215255</v>
+        <v>217628</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>178101</v>
+        <v>179842</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>61515</v>
+        <v>60614</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>40355</v>
+        <v>39819</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22096</v>
+        <v>22563</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38062</v>
+        <v>38274</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>162539</v>
+        <v>160629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>125633</v>
+        <v>128221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>80303</v>
+        <v>79324</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>147842</v>
+        <v>149573</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>233052</v>
+        <v>232172</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>175446</v>
+        <v>175919</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>110060</v>
+        <v>108243</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>194928</v>
+        <v>193115</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>93998</v>
+        <v>93896</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>70145</v>
+        <v>70864</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44510</v>
+        <v>43161</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>62594</v>
+        <v>62072</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>212325</v>
+        <v>210059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>173670</v>
+        <v>171875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>118667</v>
+        <v>120324</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>185426</v>
+        <v>186177</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>293475</v>
+        <v>290518</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>230945</v>
+        <v>230783</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>155263</v>
+        <v>152147</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>237239</v>
+        <v>240003</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44515</v>
+        <v>43201</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37327</v>
+        <v>37058</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16157</v>
+        <v>16897</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32578</v>
+        <v>32423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>117186</v>
+        <v>117722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>83546</v>
+        <v>81188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>48034</v>
+        <v>48136</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>116329</v>
+        <v>118532</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>170358</v>
+        <v>169361</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>126694</v>
+        <v>128136</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>70078</v>
+        <v>70399</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>156784</v>
+        <v>157212</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73003</v>
+        <v>74181</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64443</v>
+        <v>64973</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36796</v>
+        <v>36290</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56349</v>
+        <v>56454</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>158295</v>
+        <v>160161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121133</v>
+        <v>119843</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>80737</v>
+        <v>80976</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>153243</v>
+        <v>150190</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>223084</v>
+        <v>223218</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>176038</v>
+        <v>173582</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>109732</v>
+        <v>108993</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>199614</v>
+        <v>199060</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18409</v>
+        <v>19191</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16847</v>
+        <v>16515</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11807</v>
+        <v>11454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41915</v>
+        <v>43002</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23881</v>
+        <v>24945</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41898</v>
+        <v>40467</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17068</v>
+        <v>16875</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>89173</v>
+        <v>89905</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>49012</v>
+        <v>48485</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>63476</v>
+        <v>62798</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33108</v>
+        <v>33869</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>140334</v>
+        <v>137584</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40474</v>
+        <v>39130</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39777</v>
+        <v>39104</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31952</v>
+        <v>29808</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>70426</v>
+        <v>69637</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>46353</v>
+        <v>48779</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>71481</v>
+        <v>70185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39811</v>
+        <v>39146</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>119977</v>
+        <v>118936</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>80129</v>
+        <v>79936</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>100033</v>
+        <v>99704</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>63676</v>
+        <v>63044</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>183796</v>
+        <v>181605</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>203419</v>
+        <v>202812</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>147001</v>
+        <v>148387</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>100521</v>
+        <v>101679</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>161187</v>
+        <v>161062</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>540140</v>
+        <v>538176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>399565</v>
+        <v>397465</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>293408</v>
+        <v>290334</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>495915</v>
+        <v>494812</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>759615</v>
+        <v>751590</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>562257</v>
+        <v>563753</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>411934</v>
+        <v>415000</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>670991</v>
+        <v>671202</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>259788</v>
+        <v>259877</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>202408</v>
+        <v>200985</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>143165</v>
+        <v>144611</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>210610</v>
+        <v>211064</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>630489</v>
+        <v>623708</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>477734</v>
+        <v>483123</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>366864</v>
+        <v>365454</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>563476</v>
+        <v>562860</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>863636</v>
+        <v>862685</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>664030</v>
+        <v>659549</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>498282</v>
+        <v>500903</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>755877</v>
+        <v>752201</v>
       </c>
     </row>
     <row r="24">
